--- a/material/translation/TermDefinitions/BirthEvidence.xlsx
+++ b/material/translation/TermDefinitions/BirthEvidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - AGE - Administración General del Estado\MOR\Birth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoage-my.sharepoint.com/personal/anarosa_guzman_correo_gob_es/Documents/MOR/BirthEvidence-MOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737C7E2-BE43-4868-88EA-3901BA994418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{D08004CD-F6CA-4292-90F2-B089453350E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D947BF7-4371-408D-9008-45A3980ED806}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>Term</t>
   </si>
@@ -56,221 +56,194 @@
     <t>true</t>
   </si>
   <si>
+    <t>Birth evidence</t>
+  </si>
+  <si>
+    <t>Official document or data proving the Birth of a Child.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>An unambiguous reference to the Birth Evidence.</t>
+  </si>
+  <si>
+    <t>Issue date</t>
+  </si>
+  <si>
+    <t>The most recent date on which the Birth Evidence instance was issued.</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>Issuing authority</t>
+  </si>
+  <si>
+    <t>A Public Organisation with official authority in charge of issuing the Birth Evidence.</t>
+  </si>
+  <si>
+    <t>Issuing place</t>
+  </si>
+  <si>
+    <t>The Location where the Birth Evidence was issued.</t>
+  </si>
+  <si>
+    <t>Certifies birth</t>
+  </si>
+  <si>
+    <t>Attesting in a formal way that the Birth is true.</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>The Person who is born at the Birth. A Person of any age, who is a son or daughter.</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>The Parent of the Child. One of the two Persons who are jointly the cause of the Child's Birth, i.e. natural parent.</t>
+  </si>
+  <si>
+    <t>Term URI</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>BirthEvidence</t>
   </si>
   <si>
-    <t>Official document or data proving the Birth of a Child.</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Citizenship</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Term URI</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>DE4A</t>
   </si>
   <si>
     <t>BirthEvidence/Identifier</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>It is the identifier from Core Vocabularies (Core Vocabulary Aggregated Components)</t>
+  </si>
+  <si>
     <t>BirthEvidence/IssueDate</t>
   </si>
   <si>
+    <t>udt:DateType</t>
+  </si>
+  <si>
+    <t>UDT/Date</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>It is the DateType from unqualified data types from UBL-2.3</t>
+  </si>
+  <si>
     <t>BirthEvidence/IssuingAuthority</t>
   </si>
   <si>
+    <t>PublicOrganisation</t>
+  </si>
+  <si>
     <t>BirthEvidence/IssuingPlace</t>
   </si>
   <si>
+    <t>BirthEvidence/CertifiesBirth</t>
+  </si>
+  <si>
     <t>BirthEvidence/CertifiesBirth/Child</t>
   </si>
   <si>
+    <t>Person</t>
+  </si>
+  <si>
     <t>BirthEvidence/CertifiesBirth/Child/DateOfBirth</t>
   </si>
   <si>
+    <t>person:DateOfBirthType</t>
+  </si>
+  <si>
+    <t>Person/DateOfBirth</t>
+  </si>
+  <si>
+    <t>BirthEvidence/CertifiesBirth/Child/Gender</t>
+  </si>
+  <si>
+    <t>PersonGenderEnum</t>
+  </si>
+  <si>
     <t>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</t>
   </si>
   <si>
-    <t>PersonGenderEnum</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Child/PersonName</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Child/Identifier</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Child/Citizenship</t>
+    <t>LocationAddress</t>
   </si>
   <si>
     <t>BirthEvidence/CertifiesBirth/Parent</t>
   </si>
   <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/PersonName</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/Identifier</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/Citizenship</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Parent/Gender</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth/Child/Gender</t>
-  </si>
-  <si>
-    <t>An unambiguous reference to the Birth Evidence.</t>
-  </si>
-  <si>
-    <t>BirthEvidence/CertifiesBirth</t>
-  </si>
-  <si>
-    <t>The Location where the Birth Evidence was issued.</t>
-  </si>
-  <si>
-    <t>Attesting in a formal way that the Birth is true.</t>
-  </si>
-  <si>
-    <t>It is the identifier from Core Vocabularies (Core Vocabulary Aggregated Components)</t>
-  </si>
-  <si>
-    <t>It is the DateType from unqualified data types from UBL-2.3</t>
-  </si>
-  <si>
-    <t>The Person who is born at the Birth. A Person of any age, who is a son or daughter.</t>
-  </si>
-  <si>
-    <t>The Parent of the Child. One of the two Persons who are jointly the cause of the Child's Birth, i.e. natural parent.</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Cardinality</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>0..*</t>
+  </si>
+  <si>
+    <t>1..1</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>1..1</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
     <t>1..*</t>
   </si>
   <si>
-    <t>udt:DateType</t>
-  </si>
-  <si>
-    <t>UDT/Date</t>
-  </si>
-  <si>
-    <t>PublicOrganisation</t>
-  </si>
-  <si>
-    <t>ConstrainedLocationAddress</t>
-  </si>
-  <si>
-    <t>Person/DateOfBirth</t>
-  </si>
-  <si>
-    <t>LocationAddress</t>
-  </si>
-  <si>
-    <t>Person/PersonName</t>
-  </si>
-  <si>
-    <t>person:PersonNameType</t>
-  </si>
-  <si>
-    <t>person:DateOfBirthType</t>
-  </si>
-  <si>
-    <t>Person/Jurisdiction</t>
-  </si>
-  <si>
-    <t>person:JurisdictionType</t>
-  </si>
-  <si>
-    <t>Place of birth</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Certifies birth</t>
-  </si>
-  <si>
-    <t>Issuing place</t>
-  </si>
-  <si>
-    <t>Issuing authority</t>
-  </si>
-  <si>
-    <t>Issue date</t>
-  </si>
-  <si>
-    <t>Birth evidence</t>
-  </si>
-  <si>
-    <t>Person name</t>
-  </si>
-  <si>
-    <t>A Public Organisation with official authority in charge of issuing the Birth Evidence.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Person</t>
+    <t>BirthEvidence/IssuingPlace/AdminUnitL2</t>
+  </si>
+  <si>
+    <t>BirthEvidence/IssuingPlace/AdminUnitL1</t>
+  </si>
+  <si>
+    <t>LocationAddress/AdminUnitL2</t>
+  </si>
+  <si>
+    <t>LocationAddress/AdminUnitL1</t>
+  </si>
+  <si>
+    <t>location:AdminUnitL2Type</t>
+  </si>
+  <si>
+    <t>location:AdminUnitL1Type</t>
+  </si>
+  <si>
+    <t>Gender of the born person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,18 +268,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,14 +288,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,11 +300,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,9 +639,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,7 +717,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Terms!A7</f>
+        <f>Terms!A9</f>
         <v>BirthEvidence/CertifiesBirth</v>
       </c>
       <c r="E7" t="s">
@@ -773,7 +726,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Terms!A8</f>
+        <f>Terms!A10</f>
         <v>BirthEvidence/CertifiesBirth/Child</v>
       </c>
       <c r="E8" t="s">
@@ -782,7 +735,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Terms!A9</f>
+        <f>Terms!A11</f>
         <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
       </c>
       <c r="E9" t="s">
@@ -791,7 +744,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Terms!A10</f>
+        <f>Terms!A12</f>
         <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
       </c>
       <c r="D10" s="1"/>
@@ -801,7 +754,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>Terms!A11</f>
+        <f>Terms!A13</f>
         <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
       </c>
       <c r="E11" t="s">
@@ -809,9 +762,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Terms!A12</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PersonName</v>
+      <c r="A12" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -819,68 +772,20 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Terms!A13</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Identifier</v>
+        <f>Terms!A14</f>
+        <v>BirthEvidence/CertifiesBirth/Parent</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Terms!A14</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Citizenship</v>
+      <c r="A14" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Terms!A15</f>
-        <v>BirthEvidence/CertifiesBirth/Parent</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Terms!A16</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Terms!A17</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Gender</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Terms!A18</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Terms!A19</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PersonName</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Terms!A20</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Identifier</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Terms!A21</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Citizenship</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Terms!A22</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +796,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +872,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Terms!A7</f>
+        <f>Terms!A9</f>
         <v>BirthEvidence/CertifiesBirth</v>
       </c>
       <c r="E7" t="s">
@@ -976,7 +881,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Terms!A8</f>
+        <f>Terms!A10</f>
         <v>BirthEvidence/CertifiesBirth/Child</v>
       </c>
       <c r="E8" t="s">
@@ -985,7 +890,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Terms!A9</f>
+        <f>Terms!A11</f>
         <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
       </c>
       <c r="E9" t="s">
@@ -994,7 +899,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Terms!A10</f>
+        <f>Terms!A12</f>
         <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
       </c>
       <c r="D10" s="1"/>
@@ -1004,7 +909,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>Terms!A11</f>
+        <f>Terms!A13</f>
         <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
       </c>
       <c r="E11" t="s">
@@ -1012,9 +917,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Terms!A12</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PersonName</v>
+      <c r="A12" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1022,68 +927,20 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Terms!A13</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Identifier</v>
+        <f>Terms!A14</f>
+        <v>BirthEvidence/CertifiesBirth/Parent</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Terms!A14</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Citizenship</v>
+      <c r="A14" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Terms!A15</f>
-        <v>BirthEvidence/CertifiesBirth/Parent</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Terms!A16</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Terms!A17</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Gender</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Terms!A18</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Terms!A19</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PersonName</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Terms!A20</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Identifier</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Terms!A21</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Citizenship</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Terms!A22</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1094,9 +951,165 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Terms!A2</f>
+        <v>BirthEvidence</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Terms!A3</f>
+        <v>BirthEvidence/Identifier</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Terms!A4</f>
+        <v>BirthEvidence/IssueDate</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Terms!A5</f>
+        <v>BirthEvidence/IssuingAuthority</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Terms!A6</f>
+        <v>BirthEvidence/IssuingPlace</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Terms!A9</f>
+        <v>BirthEvidence/CertifiesBirth</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Terms!A10</f>
+        <v>BirthEvidence/CertifiesBirth/Child</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Terms!A11</f>
+        <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Terms!A12</f>
+        <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Terms!A13</f>
+        <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Terms!A14</f>
+        <v>BirthEvidence/CertifiesBirth/Parent</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1167,7 +1180,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Terms!A7</f>
+        <f>Terms!A9</f>
         <v>BirthEvidence/CertifiesBirth</v>
       </c>
       <c r="E7" t="s">
@@ -1176,7 +1189,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Terms!A8</f>
+        <f>Terms!A10</f>
         <v>BirthEvidence/CertifiesBirth/Child</v>
       </c>
       <c r="E8" t="s">
@@ -1185,7 +1198,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Terms!A9</f>
+        <f>Terms!A11</f>
         <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
       </c>
       <c r="E9" t="s">
@@ -1194,7 +1207,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Terms!A10</f>
+        <f>Terms!A12</f>
         <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
       </c>
       <c r="D10" s="1"/>
@@ -1204,7 +1217,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>Terms!A11</f>
+        <f>Terms!A13</f>
         <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
       </c>
       <c r="E11" t="s">
@@ -1212,9 +1225,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Terms!A12</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PersonName</v>
+      <c r="A12" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1222,268 +1235,20 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Terms!A13</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Identifier</v>
+        <f>Terms!A14</f>
+        <v>BirthEvidence/CertifiesBirth/Parent</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Terms!A14</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Citizenship</v>
+      <c r="A14" t="e">
+        <f>Terms!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Terms!A15</f>
-        <v>BirthEvidence/CertifiesBirth/Parent</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Terms!A16</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Terms!A17</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Gender</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Terms!A18</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Terms!A19</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PersonName</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Terms!A20</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Identifier</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Terms!A21</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Citizenship</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Terms!A22</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Terms!A2</f>
-        <v>BirthEvidence</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>Terms!A3</f>
-        <v>BirthEvidence/Identifier</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>Terms!A4</f>
-        <v>BirthEvidence/IssueDate</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>Terms!A5</f>
-        <v>BirthEvidence/IssuingAuthority</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>Terms!A6</f>
-        <v>BirthEvidence/IssuingPlace</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>Terms!A7</f>
-        <v>BirthEvidence/CertifiesBirth</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Terms!A8</f>
-        <v>BirthEvidence/CertifiesBirth/Child</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>Terms!A9</f>
-        <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>Terms!A10</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Terms!A11</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Terms!A12</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PersonName</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Terms!A13</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Identifier</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Terms!A14</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Citizenship</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Terms!A15</f>
-        <v>BirthEvidence/CertifiesBirth/Parent</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Terms!A16</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>Terms!A17</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Gender</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Terms!A18</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>Terms!A19</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PersonName</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>Terms!A20</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Identifier</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>Terms!A21</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Citizenship</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Terms!A22</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1259,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,242 +1273,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" t="str">
         <f>Terms!A2</f>
         <v>BirthEvidence</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
+      <c r="A3" t="str">
         <f>Terms!A3</f>
         <v>BirthEvidence/Identifier</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
+      <c r="A4" t="str">
         <f>Terms!A4</f>
         <v>BirthEvidence/IssueDate</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
+      <c r="A5" t="str">
         <f>Terms!A5</f>
         <v>BirthEvidence/IssuingAuthority</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>73</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
+      <c r="A6" t="str">
         <f>Terms!A6</f>
         <v>BirthEvidence/IssuingPlace</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
+      <c r="A7" t="str">
         <f>Terms!A7</f>
+        <v>BirthEvidence/IssuingPlace/AdminUnitL2</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Terms!A8</f>
+        <v>BirthEvidence/IssuingPlace/AdminUnitL1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Terms!A9</f>
         <v>BirthEvidence/CertifiesBirth</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
-        <f>Terms!A8</f>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Terms!A10</f>
         <v>BirthEvidence/CertifiesBirth/Child</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
-        <f>Terms!A9</f>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Terms!A11</f>
         <v>BirthEvidence/CertifiesBirth/Child/DateOfBirth</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Terms!A12</f>
+        <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
-        <f>Terms!A10</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Gender</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
-        <f>Terms!A11</f>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Terms!A13</f>
         <v>BirthEvidence/CertifiesBirth/Child/PlaceOfBirth</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
-        <f>Terms!A12</f>
-        <v>BirthEvidence/CertifiesBirth/Child/PersonName</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f>Terms!A13</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Identifier</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
         <f>Terms!A14</f>
-        <v>BirthEvidence/CertifiesBirth/Child/Citizenship</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
-        <f>Terms!A15</f>
         <v>BirthEvidence/CertifiesBirth/Parent</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f>Terms!A16</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/DateOfBirth</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="str">
-        <f>Terms!A17</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Gender</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f>Terms!A18</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PlaceOfBirth</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
-        <f>Terms!A19</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/PersonName</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="str">
-        <f>Terms!A20</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Identifier</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
-        <f>Terms!A21</f>
-        <v>BirthEvidence/CertifiesBirth/Parent/Citizenship</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Terms!A22</f>
-        <v>0</v>
-      </c>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,313 +1487,244 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="7" t="s">
         <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="H20" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{EB7EF202-DC4F-43B7-BD5F-85FAD9A06D33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{EB7EF202-DC4F-43B7-BD5F-85FAD9A06D33}">
       <formula1>"00,01,10,11"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2295,7 +1960,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5E43CB-778A-4566-936E-27FDECE977F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5113AD0C-E2CD-4DB1-96F3-28307CB815C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2316,16 +1981,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195027DE-B31D-4A5C-9F8C-7A1AA00AD228}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
